--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-healthcareservice-social-equipment.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T14:18:11+00:00</t>
+    <t>2024-10-11T14:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-healthcareservice-social-equipment.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T14:28:17+00:00</t>
+    <t>2024-10-11T14:48:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-healthcareservice-social-equipment.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T14:48:45+00:00</t>
+    <t>2024-10-12T09:26:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-healthcareservice-social-equipment.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-12T09:26:25+00:00</t>
+    <t>2024-10-29T10:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-healthcareservice-social-equipment.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-29T10:53:15+00:00</t>
+    <t>2024-11-06T13:23:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-healthcareservice-social-equipment.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-06T13:23:16+00:00</t>
+    <t>2024-11-07T08:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-healthcareservice-social-equipment.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T08:33:26+00:00</t>
+    <t>2024-11-07T08:46:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-healthcareservice-social-equipment.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T08:46:41+00:00</t>
+    <t>2024-11-13T08:40:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-healthcareservice-social-equipment.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T08:40:33+00:00</t>
+    <t>2024-11-13T08:49:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-healthcareservice-social-equipment.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T08:49:07+00:00</t>
+    <t>2024-11-13T08:59:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-healthcareservice-social-equipment.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T08:59:38+00:00</t>
+    <t>2024-11-13T09:09:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-healthcareservice-social-equipment.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T09:09:03+00:00</t>
+    <t>2024-11-13T09:11:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-healthcareservice-social-equipment.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T09:11:42+00:00</t>
+    <t>2024-11-13T09:14:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-healthcareservice-social-equipment.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T09:14:39+00:00</t>
+    <t>2024-11-13T09:36:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-healthcareservice-social-equipment.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T09:36:20+00:00</t>
+    <t>2024-11-13T09:52:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
